--- a/Fase II/cronograma.xlsx
+++ b/Fase II/cronograma.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="69">
   <si>
     <t>Actividad</t>
   </si>
@@ -126,21 +126,12 @@
     <t>Creación de herencia de plantillas</t>
   </si>
   <si>
-    <t>Control de grupos</t>
-  </si>
-  <si>
     <t>Perfil de usuario</t>
   </si>
   <si>
     <t>Módulo de perfil</t>
   </si>
   <si>
-    <t>Gestión de grupos</t>
-  </si>
-  <si>
-    <t>CRUD grupos, y unirse/salirse de grupos</t>
-  </si>
-  <si>
     <t>inicio y cierre de sesion</t>
   </si>
   <si>
@@ -168,9 +159,6 @@
     <t>Ver auditoria de usuarios</t>
   </si>
   <si>
-    <t>Poder eliminar grupos</t>
-  </si>
-  <si>
     <t>CRUD de proyectos</t>
   </si>
   <si>
@@ -186,10 +174,55 @@
     <t>Contestar un instrumento</t>
   </si>
   <si>
-    <t>Descipción</t>
-  </si>
-  <si>
     <t>vincular usuarios a un proyecto</t>
+  </si>
+  <si>
+    <t>Gestión de organizaciones</t>
+  </si>
+  <si>
+    <t>CRUD de organizaciones</t>
+  </si>
+  <si>
+    <t>Gestión de departamentos</t>
+  </si>
+  <si>
+    <t>CRUD de departamentos</t>
+  </si>
+  <si>
+    <t>Gestión de cargos</t>
+  </si>
+  <si>
+    <t>CRUD de cargos</t>
+  </si>
+  <si>
+    <t>Invitar usuarios a contestar instrumentos</t>
+  </si>
+  <si>
+    <t>Cambiar contraseña</t>
+  </si>
+  <si>
+    <t>Importación de usuarios desde excel</t>
+  </si>
+  <si>
+    <t>Tener en cuenta el generador de contraseñas y las relaciones con organizaciones, departamentos y cargos</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>crear entidades para symfony</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ajustar hojas de estilos </t>
+  </si>
+  <si>
+    <t>Vincular template a symfony</t>
+  </si>
+  <si>
+    <t>seccion para que el usuario pueda cambiar la contraseña</t>
+  </si>
+  <si>
+    <t>Enviar invitaciones a usuarios. Utilizar token para no obligar al usuario a registrarse o loguearse</t>
   </si>
 </sst>
 </file>
@@ -308,9 +341,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -318,6 +348,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -620,19 +653,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BV39"/>
+  <dimension ref="A1:BV43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomRight" activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="17" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" style="5" bestFit="1" customWidth="1"/>
@@ -664,90 +697,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="19"/>
+      <c r="B1" s="18"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15" t="s">
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="15"/>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="15"/>
-      <c r="AM1" s="15"/>
-      <c r="AN1" s="15"/>
-      <c r="AO1" s="15"/>
-      <c r="AP1" s="15"/>
-      <c r="AQ1" s="15"/>
-      <c r="AR1" s="15"/>
-      <c r="AS1" s="15" t="s">
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="19"/>
+      <c r="AN1" s="19"/>
+      <c r="AO1" s="19"/>
+      <c r="AP1" s="19"/>
+      <c r="AQ1" s="19"/>
+      <c r="AR1" s="19"/>
+      <c r="AS1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AT1" s="15"/>
-      <c r="AU1" s="15"/>
-      <c r="AV1" s="15"/>
-      <c r="AW1" s="15"/>
-      <c r="AX1" s="15"/>
-      <c r="AY1" s="15"/>
-      <c r="AZ1" s="15"/>
-      <c r="BA1" s="15"/>
-      <c r="BB1" s="15"/>
-      <c r="BC1" s="15"/>
-      <c r="BD1" s="15"/>
-      <c r="BE1" s="15"/>
-      <c r="BF1" s="15"/>
-      <c r="BG1" s="15"/>
-      <c r="BH1" s="15"/>
-      <c r="BI1" s="15"/>
-      <c r="BJ1" s="15"/>
-      <c r="BK1" s="15"/>
-      <c r="BL1" s="15"/>
-      <c r="BM1" s="15"/>
-      <c r="BN1" s="15"/>
-      <c r="BO1" s="15"/>
-      <c r="BP1" s="15"/>
-      <c r="BQ1" s="15"/>
-      <c r="BR1" s="15"/>
-      <c r="BS1" s="15"/>
-      <c r="BT1" s="15"/>
-      <c r="BU1" s="15"/>
-      <c r="BV1" s="15"/>
+      <c r="AT1" s="19"/>
+      <c r="AU1" s="19"/>
+      <c r="AV1" s="19"/>
+      <c r="AW1" s="19"/>
+      <c r="AX1" s="19"/>
+      <c r="AY1" s="19"/>
+      <c r="AZ1" s="19"/>
+      <c r="BA1" s="19"/>
+      <c r="BB1" s="19"/>
+      <c r="BC1" s="19"/>
+      <c r="BD1" s="19"/>
+      <c r="BE1" s="19"/>
+      <c r="BF1" s="19"/>
+      <c r="BG1" s="19"/>
+      <c r="BH1" s="19"/>
+      <c r="BI1" s="19"/>
+      <c r="BJ1" s="19"/>
+      <c r="BK1" s="19"/>
+      <c r="BL1" s="19"/>
+      <c r="BM1" s="19"/>
+      <c r="BN1" s="19"/>
+      <c r="BO1" s="19"/>
+      <c r="BP1" s="19"/>
+      <c r="BQ1" s="19"/>
+      <c r="BR1" s="19"/>
+      <c r="BS1" s="19"/>
+      <c r="BT1" s="19"/>
+      <c r="BU1" s="19"/>
+      <c r="BV1" s="19"/>
     </row>
     <row r="2" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>56</v>
+      <c r="B2" s="18" t="s">
+        <v>63</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -970,7 +1003,7 @@
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
@@ -1012,9 +1045,6 @@
       <c r="D5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="5">
-        <v>16</v>
-      </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -1022,18 +1052,16 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="7"/>
     </row>
     <row r="8" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="2">
-        <v>15</v>
-      </c>
+      <c r="B8" s="18"/>
+      <c r="E8" s="2"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="12"/>
@@ -1080,6 +1108,9 @@
       <c r="A10" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="B10" s="17" t="s">
+        <v>64</v>
+      </c>
       <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
@@ -1089,13 +1120,19 @@
       <c r="E10" s="5">
         <v>2</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="14"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
     </row>
     <row r="11" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="B11" s="17" t="s">
+        <v>65</v>
+      </c>
       <c r="C11" s="4" t="s">
         <v>19</v>
       </c>
@@ -1105,36 +1142,38 @@
       <c r="E11" s="5">
         <v>8</v>
       </c>
-      <c r="M11" s="14"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="11"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
     </row>
     <row r="12" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="B12" s="17" t="s">
+        <v>66</v>
+      </c>
       <c r="C12" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="5">
         <v>4</v>
       </c>
-      <c r="M12" s="17"/>
-      <c r="N12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="11"/>
       <c r="P12" s="8"/>
+      <c r="T12" s="7"/>
     </row>
     <row r="14" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="2">
-        <v>8</v>
-      </c>
+      <c r="B14" s="18"/>
+      <c r="E14" s="2"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="12"/>
@@ -1166,11 +1205,14 @@
       <c r="A15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="18" t="s">
-        <v>48</v>
+      <c r="B15" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="E15" s="5">
         <v>4</v>
@@ -1184,11 +1226,14 @@
       <c r="A16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="18" t="s">
-        <v>49</v>
+      <c r="B16" s="17" t="s">
+        <v>46</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="E16" s="5">
         <v>4</v>
@@ -1200,94 +1245,106 @@
     </row>
     <row r="17" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="D17" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="E17" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N17" s="11"/>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
     </row>
-    <row r="19" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="18" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="5">
+        <v>6</v>
+      </c>
+      <c r="N18" s="11"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+    </row>
+    <row r="19" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="5">
+        <v>6</v>
+      </c>
+      <c r="N19" s="11"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+    </row>
+    <row r="21" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="2">
-        <v>32</v>
-      </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="9"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AF19" s="3"/>
-      <c r="AG19" s="3"/>
-      <c r="AM19" s="3"/>
-      <c r="AN19" s="3"/>
-      <c r="AR19" s="12"/>
-      <c r="AS19" s="9"/>
-      <c r="AT19" s="3"/>
-      <c r="AU19" s="3"/>
-      <c r="AV19" s="3"/>
-      <c r="BA19" s="3"/>
-      <c r="BB19" s="3"/>
-      <c r="BC19" s="3"/>
-      <c r="BH19" s="3"/>
-      <c r="BI19" s="3"/>
-      <c r="BO19" s="3"/>
-      <c r="BP19" s="3"/>
-      <c r="BV19" s="3"/>
-    </row>
-    <row r="20" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="5">
-        <v>8</v>
-      </c>
+      <c r="B21" s="18"/>
+      <c r="E21" s="2"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="9"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="3"/>
+      <c r="AR21" s="12"/>
+      <c r="AS21" s="9"/>
+      <c r="AT21" s="3"/>
+      <c r="AU21" s="3"/>
+      <c r="AV21" s="3"/>
+      <c r="BA21" s="3"/>
+      <c r="BB21" s="3"/>
+      <c r="BC21" s="3"/>
+      <c r="BH21" s="3"/>
+      <c r="BI21" s="3"/>
+      <c r="BO21" s="3"/>
+      <c r="BP21" s="3"/>
+      <c r="BV21" s="3"/>
     </row>
     <row r="22" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>47</v>
+        <v>7</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>19</v>
@@ -1296,100 +1353,84 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="2">
-        <v>32</v>
-      </c>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="9"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AF24" s="3"/>
-      <c r="AG24" s="3"/>
-      <c r="AM24" s="3"/>
-      <c r="AN24" s="3"/>
-      <c r="AR24" s="12"/>
-      <c r="AS24" s="9"/>
-      <c r="AT24" s="3"/>
-      <c r="AU24" s="3"/>
-      <c r="AV24" s="3"/>
-      <c r="BA24" s="3"/>
-      <c r="BB24" s="3"/>
-      <c r="BC24" s="3"/>
-      <c r="BH24" s="3"/>
-      <c r="BI24" s="3"/>
-      <c r="BO24" s="3"/>
-      <c r="BP24" s="3"/>
-      <c r="BV24" s="3"/>
+    <row r="23" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="5">
+        <v>8</v>
+      </c>
     </row>
     <row r="25" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>41</v>
+        <v>61</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>62</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="5">
-        <v>8</v>
-      </c>
-      <c r="N25" s="11"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-    </row>
-    <row r="26" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="5">
-        <v>8</v>
-      </c>
-      <c r="N26" s="11"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-    </row>
-    <row r="27" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+    </row>
+    <row r="27" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="5">
-        <v>8</v>
-      </c>
+      <c r="B27" s="18"/>
+      <c r="E27" s="2"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="9"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
+      <c r="AR27" s="12"/>
+      <c r="AS27" s="9"/>
+      <c r="AT27" s="3"/>
+      <c r="AU27" s="3"/>
+      <c r="AV27" s="3"/>
+      <c r="BA27" s="3"/>
+      <c r="BB27" s="3"/>
+      <c r="BC27" s="3"/>
+      <c r="BH27" s="3"/>
+      <c r="BI27" s="3"/>
+      <c r="BO27" s="3"/>
+      <c r="BP27" s="3"/>
+      <c r="BV27" s="3"/>
     </row>
     <row r="28" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>40</v>
+        <v>33</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>19</v>
@@ -1397,175 +1438,229 @@
       <c r="E28" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="2">
+      <c r="N28" s="11"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+    </row>
+    <row r="29" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="5">
+        <v>8</v>
+      </c>
+      <c r="N29" s="11"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+    </row>
+    <row r="30" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="9"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="Y30" s="3"/>
-      <c r="Z30" s="3"/>
-      <c r="AA30" s="3"/>
-      <c r="AF30" s="3"/>
-      <c r="AG30" s="3"/>
-      <c r="AM30" s="3"/>
-      <c r="AN30" s="3"/>
-      <c r="AR30" s="12"/>
-      <c r="AS30" s="9"/>
-      <c r="AT30" s="3"/>
-      <c r="AU30" s="3"/>
-      <c r="AV30" s="3"/>
-      <c r="BA30" s="3"/>
-      <c r="BB30" s="3"/>
-      <c r="BC30" s="3"/>
-      <c r="BH30" s="3"/>
-      <c r="BI30" s="3"/>
-      <c r="BO30" s="3"/>
-      <c r="BP30" s="3"/>
-      <c r="BV30" s="3"/>
+      <c r="B30" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="5">
+        <v>8</v>
+      </c>
     </row>
     <row r="31" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>51</v>
+        <v>60</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>67</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E31" s="5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" s="5">
         <v>4</v>
       </c>
+    </row>
+    <row r="33" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="18"/>
+      <c r="E33" s="2"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="9"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="3"/>
+      <c r="AM33" s="3"/>
+      <c r="AN33" s="3"/>
+      <c r="AR33" s="12"/>
+      <c r="AS33" s="9"/>
+      <c r="AT33" s="3"/>
+      <c r="AU33" s="3"/>
+      <c r="AV33" s="3"/>
+      <c r="BA33" s="3"/>
+      <c r="BB33" s="3"/>
+      <c r="BC33" s="3"/>
+      <c r="BH33" s="3"/>
+      <c r="BI33" s="3"/>
+      <c r="BO33" s="3"/>
+      <c r="BP33" s="3"/>
+      <c r="BV33" s="3"/>
     </row>
     <row r="34" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>57</v>
+        <v>10</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>47</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E34" s="5">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>48</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E35" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E37" s="2">
-        <v>32</v>
-      </c>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="9"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="Y37" s="3"/>
-      <c r="Z37" s="3"/>
-      <c r="AA37" s="3"/>
-      <c r="AF37" s="3"/>
-      <c r="AG37" s="3"/>
-      <c r="AM37" s="3"/>
-      <c r="AN37" s="3"/>
-      <c r="AR37" s="12"/>
-      <c r="AS37" s="9"/>
-      <c r="AT37" s="3"/>
-      <c r="AU37" s="3"/>
-      <c r="AV37" s="3"/>
-      <c r="BA37" s="3"/>
-      <c r="BB37" s="3"/>
-      <c r="BC37" s="3"/>
-      <c r="BH37" s="3"/>
-      <c r="BI37" s="3"/>
-      <c r="BO37" s="3"/>
-      <c r="BP37" s="3"/>
-      <c r="BV37" s="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="38" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="18"/>
+      <c r="E40" s="2"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="9"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+      <c r="AF40" s="3"/>
+      <c r="AG40" s="3"/>
+      <c r="AM40" s="3"/>
+      <c r="AN40" s="3"/>
+      <c r="AR40" s="12"/>
+      <c r="AS40" s="9"/>
+      <c r="AT40" s="3"/>
+      <c r="AU40" s="3"/>
+      <c r="AV40" s="3"/>
+      <c r="BA40" s="3"/>
+      <c r="BB40" s="3"/>
+      <c r="BC40" s="3"/>
+      <c r="BH40" s="3"/>
+      <c r="BI40" s="3"/>
+      <c r="BO40" s="3"/>
+      <c r="BP40" s="3"/>
+      <c r="BV40" s="3"/>
+    </row>
+    <row r="41" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" s="5">
+      <c r="B41" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="5">
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+    <row r="42" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" s="5">
+      <c r="B43" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="5">
         <v>16</v>
       </c>
     </row>
